--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E77078-8689-4231-B411-3185E4AF9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB567D9B-48EE-43FA-880A-269549F061A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -79,9 +79,6 @@
     <t>element</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -170,6 +167,30 @@
   </si>
   <si>
     <t>/html/body/div/input</t>
+  </si>
+  <si>
+    <t>absolute xpath</t>
+  </si>
+  <si>
+    <t>relative xpath</t>
+  </si>
+  <si>
+    <t>//div[1]/input[1]</t>
+  </si>
+  <si>
+    <t>//input</t>
+  </si>
+  <si>
+    <t>//input[1]</t>
+  </si>
+  <si>
+    <t>//input[2]</t>
+  </si>
+  <si>
+    <t>//div[2]/input</t>
+  </si>
+  <si>
+    <t>//div[1]/input</t>
   </si>
 </sst>
 </file>
@@ -246,15 +267,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>320386</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>134215</xdr:rowOff>
+      <xdr:colOff>119000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400489</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121226</xdr:rowOff>
+      <xdr:colOff>199103</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>94011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -277,8 +298,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3532909" y="134215"/>
-          <a:ext cx="3132432" cy="1701511"/>
+          <a:off x="6465371" y="297500"/>
+          <a:ext cx="3128103" cy="1701511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,143 +620,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2BF2B9-C8EF-4085-BDE8-04C329AB3D03}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
+      <c r="C16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB567D9B-48EE-43FA-880A-269549F061A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A9280-8516-4DB3-A4BA-EB8081B1A754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exception" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>//div[1]/input</t>
+  </si>
+  <si>
+    <t>RelativeLocator</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2BF2B9-C8EF-4085-BDE8-04C329AB3D03}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -812,10 +815,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FEFBDE-5EEE-4567-8962-798EED04AF63}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +867,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A9280-8516-4DB3-A4BA-EB8081B1A754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BCFF05-B9E6-4BFF-A972-A120EA848361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exception" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>RelativeLocator</t>
+  </si>
+  <si>
+    <t>UnsupportedOperationException</t>
+  </si>
+  <si>
+    <t>submit() on normal button</t>
   </si>
 </sst>
 </file>
@@ -577,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -614,6 +620,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FEFBDE-5EEE-4567-8962-798EED04AF63}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BCFF05-B9E6-4BFF-A972-A120EA848361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E0310-8A58-4E34-852F-CF81E9662E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exception" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>submit() on normal button</t>
+  </si>
+  <si>
+    <t>IOException</t>
+  </si>
+  <si>
+    <t>JavascriptException</t>
+  </si>
+  <si>
+    <t>Scroll methods under Actions class</t>
+  </si>
+  <si>
+    <t>NP</t>
   </si>
 </sst>
 </file>
@@ -583,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +640,16 @@
       </c>
       <c r="B5" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -829,10 +851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FEFBDE-5EEE-4567-8962-798EED04AF63}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,6 +911,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E0310-8A58-4E34-852F-CF81E9662E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17C67BD-A27E-4573-A533-440777F43062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exception" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>NP</t>
+  </si>
+  <si>
+    <t>methods in relative locators</t>
+  </si>
+  <si>
+    <t>methods in Actions class</t>
+  </si>
+  <si>
+    <t>NoSuchFrameException</t>
   </si>
 </sst>
 </file>
@@ -595,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +659,11 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -828,10 +842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC96C0A-34B9-4D83-9238-195EAA772008}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +858,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -853,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FEFBDE-5EEE-4567-8962-798EED04AF63}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17C67BD-A27E-4573-A533-440777F43062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5957AB-CA20-44A9-9EA4-CE86B6EDC2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>NoSuchFrameException</t>
+  </si>
+  <si>
+    <t>NoAlertPresentException</t>
+  </si>
+  <si>
+    <t>UnhandledAlertException</t>
+  </si>
+  <si>
+    <t>InvalidArgumentException</t>
   </si>
 </sst>
 </file>
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +673,21 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5957AB-CA20-44A9-9EA4-CE86B6EDC2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED71C7C-B3CC-42F4-83A3-810A0C6F6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>InvalidArgumentException</t>
+  </si>
+  <si>
+    <t>NoSuchWindowException</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +691,11 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED71C7C-B3CC-42F4-83A3-810A0C6F6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4CC500-B137-4270-8DC6-ABEED32059AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,6 +696,11 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4CC500-B137-4270-8DC6-ABEED32059AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5BCEF6-4C99-48BA-B2F9-9807DE1E28BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>NoSuchWindowException</t>
+  </si>
+  <si>
+    <t>TimeoutException</t>
   </si>
 </sst>
 </file>
@@ -616,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,6 +704,11 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5BCEF6-4C99-48BA-B2F9-9807DE1E28BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1BAF8-F0BF-4699-AB00-A9FCFADFFC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -236,16 +236,26 @@
   </si>
   <si>
     <t>TimeoutException</t>
+  </si>
+  <si>
+    <t>StaleElementReferenceException</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,13 +293,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -654,7 +665,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -709,6 +720,11 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1BAF8-F0BF-4699-AB00-A9FCFADFFC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8299D30-471C-4800-BB2E-767329CE23A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>StaleElementReferenceException</t>
+  </si>
+  <si>
+    <t>TestNGException</t>
+  </si>
+  <si>
+    <t>MethodMatcherException</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,6 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,6 +738,16 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B98_11AM_Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8299D30-471C-4800-BB2E-767329CE23A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5B82F0-6A24-4C06-ACEE-5287E7FF5172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>WebDriverException</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>MethodMatcherException</t>
+  </si>
+  <si>
+    <t>FileNotFoundException</t>
+  </si>
+  <si>
+    <t>EncryptedDocumentException</t>
   </si>
 </sst>
 </file>
@@ -643,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,6 +754,16 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
